--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30470" windowHeight="15370"/>
+    <workbookView windowHeight="17930" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill" sheetId="1" r:id="rId1"/>
+    <sheet name="Status" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>##var</t>
   </si>
@@ -290,6 +291,54 @@
   </si>
   <si>
     <t>治疗</t>
+  </si>
+  <si>
+    <t>Status.Enum.StatusType</t>
+  </si>
+  <si>
+    <t>状态类型</t>
+  </si>
+  <si>
+    <t>PropertyModify</t>
+  </si>
+  <si>
+    <t>属性修饰</t>
+  </si>
+  <si>
+    <t>ActionForbid</t>
+  </si>
+  <si>
+    <t>行为禁止</t>
+  </si>
+  <si>
+    <t>Status.Enum.StatusControlType</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>Status.Enum.StatusPropertyType</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>基础生命</t>
+  </si>
+  <si>
+    <t>HealthMax</t>
+  </si>
+  <si>
+    <t>最大生命</t>
   </si>
 </sst>
 </file>
@@ -302,13 +351,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -477,13 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,10 +852,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,34 +864,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,114 +900,135 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,23 +1352,23 @@
   <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="39.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="39.8333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.9166666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.8333333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.08333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1379,10 +1452,697 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" ht="14.75" spans="1:11">
+    <row r="4" ht="17.25" spans="1:11">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="8">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="8">
+        <v>4</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="8"/>
+      <c r="B30" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.5833333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="18" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="100.5" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:11">
       <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B4" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>0</v>
@@ -1391,14 +2151,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1412,128 +2172,134 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="b">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="D8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="6">
+        <v>4</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1547,424 +2313,37 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="4">
-        <v>4</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
-    <sheet name="Status" sheetId="2" r:id="rId2"/>
+    <sheet name="Effect" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -143,13 +143,73 @@
     <t>敌方</t>
   </si>
   <si>
-    <t>Skill.Enum.DamageType</t>
+    <t>Effect.Enum.EffectType</t>
+  </si>
+  <si>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>控制</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTarget</t>
+  </si>
+  <si>
+    <t>效果目标</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTiming</t>
+  </si>
+  <si>
+    <t>生效时机</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>立刻</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>时间内</t>
+  </si>
+  <si>
+    <t>Effect.Enum.DamageType</t>
   </si>
   <si>
     <t>伤害类型</t>
   </si>
   <si>
-    <t>Puysic</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Physics</t>
   </si>
   <si>
     <t>物理</t>
@@ -167,16 +227,16 @@
     <t>真实</t>
   </si>
   <si>
-    <t>Skill.Enum.ActionControlType</t>
-  </si>
-  <si>
-    <t>行为控制</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>无</t>
+    <t>Effect.Enum.ControlType</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>AttackForbid</t>
+  </si>
+  <si>
+    <t>禁止攻击</t>
   </si>
   <si>
     <t>MoveForbid</t>
@@ -185,160 +245,10 @@
     <t>禁止移动</t>
   </si>
   <si>
-    <t>SkillForbid</t>
+    <t>SpellForbid</t>
   </si>
   <si>
     <t>禁止施法</t>
-  </si>
-  <si>
-    <t>AttackForbid</t>
-  </si>
-  <si>
-    <t>禁止普攻</t>
-  </si>
-  <si>
-    <t>Skill.Enum.AttributeType</t>
-  </si>
-  <si>
-    <t>属性类型</t>
-  </si>
-  <si>
-    <t>HealthPointMax</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-  </si>
-  <si>
-    <t>HealthPoint</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>护甲</t>
-  </si>
-  <si>
-    <t>AbilityPower</t>
-  </si>
-  <si>
-    <t>法术强度</t>
-  </si>
-  <si>
-    <t>SpellResistance</t>
-  </si>
-  <si>
-    <t>魔法抗性</t>
-  </si>
-  <si>
-    <t>CriticalProbability</t>
-  </si>
-  <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>CauseDamage</t>
-  </si>
-  <si>
-    <t>造成伤害</t>
-  </si>
-  <si>
-    <t>Skill.Enum.ModifyType</t>
-  </si>
-  <si>
-    <t>修饰类型</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>固定</t>
-  </si>
-  <si>
-    <t>PctAdd</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>Skill.Enum.EffectType</t>
-  </si>
-  <si>
-    <t>技能效果类型</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>Status.Enum.StatusType</t>
-  </si>
-  <si>
-    <t>状态类型</t>
-  </si>
-  <si>
-    <t>PropertyModify</t>
-  </si>
-  <si>
-    <t>属性修饰</t>
-  </si>
-  <si>
-    <t>ActionForbid</t>
-  </si>
-  <si>
-    <t>行为禁止</t>
-  </si>
-  <si>
-    <t>Status.Enum.StatusControlType</t>
-  </si>
-  <si>
-    <t>控制类型</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>技能</t>
-  </si>
-  <si>
-    <t>移动</t>
-  </si>
-  <si>
-    <t>Status.Enum.StatusPropertyType</t>
-  </si>
-  <si>
-    <t>Health</t>
-  </si>
-  <si>
-    <t>基础生命</t>
-  </si>
-  <si>
-    <t>HealthMax</t>
-  </si>
-  <si>
-    <t>最大生命</t>
   </si>
 </sst>
 </file>
@@ -994,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1010,25 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,25 +1242,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="39.8333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.9166666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.8333333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.08333333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="39.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.9166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1453,584 +1345,181 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="b">
+      <c r="C6" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="b">
+      <c r="D6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8" t="b">
+      <c r="C10" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="8" t="b">
+      <c r="D10" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="8">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="8">
-        <v>2</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="8">
-        <v>4</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D32" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2045,10 +1534,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
@@ -2141,8 +1630,8 @@
     </row>
     <row r="4" ht="17.25" spans="1:11">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
-        <v>92</v>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>0</v>
@@ -2151,14 +1640,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2172,10 +1661,10 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2189,155 +1678,250 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="6" t="b">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="b">
+      <c r="E9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="E11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I10" s="6">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -194,7 +194,13 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>时间内</t>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>间隔触发</t>
   </si>
   <si>
     <t>Effect.Enum.DamageType</t>
@@ -1534,10 +1540,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
@@ -1772,36 +1778,36 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
         <v>64</v>
@@ -1848,42 +1854,42 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1923,6 +1929,23 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930" activeTab="1"/>
+    <workbookView windowHeight="17930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
     <sheet name="Effect" sheetId="2" r:id="rId2"/>
+    <sheet name="Condition" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -80,37 +81,175 @@
     <t>Initiative</t>
   </si>
   <si>
-    <t>主动技能</t>
+    <t>主动</t>
   </si>
   <si>
     <t>Passive</t>
   </si>
   <si>
-    <t>被动技能</t>
-  </si>
-  <si>
-    <t>Skill.Enum.SkillTargetSelectType</t>
-  </si>
-  <si>
-    <t>目标选择方式</t>
-  </si>
-  <si>
-    <t>PlayerSelect</t>
+    <t>被动</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectType</t>
+  </si>
+  <si>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>Cure</t>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>控制</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTarget</t>
+  </si>
+  <si>
+    <t>效果目标</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>自身</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>目标</t>
+  </si>
+  <si>
+    <t>Effect.Enum.EffectTiming</t>
+  </si>
+  <si>
+    <t>生效时机</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>立刻</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>间隔触发</t>
+  </si>
+  <si>
+    <t>Effect.Enum.DamageType</t>
+  </si>
+  <si>
+    <t>伤害类型</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>物理</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>真实</t>
+  </si>
+  <si>
+    <t>Effect.Enum.ControlType</t>
+  </si>
+  <si>
+    <t>控制类型</t>
+  </si>
+  <si>
+    <t>AttackForbid</t>
+  </si>
+  <si>
+    <t>禁止攻击</t>
+  </si>
+  <si>
+    <t>MoveForbid</t>
+  </si>
+  <si>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>SpellForbid</t>
+  </si>
+  <si>
+    <t>禁止施法</t>
+  </si>
+  <si>
+    <t>Condition.Enum.TargetType</t>
+  </si>
+  <si>
+    <t>目标类型</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>友方</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>敌方</t>
+  </si>
+  <si>
+    <t>Condition.Enum.RuleType</t>
+  </si>
+  <si>
+    <t>检测规则</t>
+  </si>
+  <si>
+    <t>Select</t>
   </si>
   <si>
     <t>手动指定</t>
   </si>
   <si>
-    <t>CollisionSelect</t>
-  </si>
-  <si>
-    <t>碰撞检测</t>
-  </si>
-  <si>
-    <t>ConditionSelect</t>
-  </si>
-  <si>
-    <t>条件检测</t>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>范围检测</t>
+  </si>
+  <si>
+    <t>AreaSelect</t>
+  </si>
+  <si>
+    <t>范围选择</t>
   </si>
   <si>
     <t>Custom</t>
@@ -119,142 +258,34 @@
     <t>自定义</t>
   </si>
   <si>
-    <t>Skill.Enum.SkillAffectTargetType</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>自身</t>
-  </si>
-  <si>
-    <t>SelfTeam</t>
-  </si>
-  <si>
-    <t>友方</t>
-  </si>
-  <si>
-    <t>EnemyTeam</t>
-  </si>
-  <si>
-    <t>敌方</t>
-  </si>
-  <si>
-    <t>Effect.Enum.EffectType</t>
-  </si>
-  <si>
-    <t>效果类型</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>伤害</t>
-  </si>
-  <si>
-    <t>Cure</t>
-  </si>
-  <si>
-    <t>治疗</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>控制</t>
-  </si>
-  <si>
-    <t>Effect.Enum.EffectTarget</t>
-  </si>
-  <si>
-    <t>效果目标</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>目标</t>
-  </si>
-  <si>
-    <t>Effect.Enum.EffectTiming</t>
-  </si>
-  <si>
-    <t>生效时机</t>
-  </si>
-  <si>
-    <t>Immediate</t>
-  </si>
-  <si>
-    <t>立刻</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>间隔触发</t>
-  </si>
-  <si>
-    <t>Effect.Enum.DamageType</t>
-  </si>
-  <si>
-    <t>伤害类型</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
-    <t>物理</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>魔法</t>
-  </si>
-  <si>
-    <t>Real</t>
-  </si>
-  <si>
-    <t>真实</t>
-  </si>
-  <si>
-    <t>Effect.Enum.ControlType</t>
-  </si>
-  <si>
-    <t>控制类型</t>
-  </si>
-  <si>
-    <t>AttackForbid</t>
-  </si>
-  <si>
-    <t>禁止攻击</t>
-  </si>
-  <si>
-    <t>MoveForbid</t>
-  </si>
-  <si>
-    <t>禁止移动</t>
-  </si>
-  <si>
-    <t>SpellForbid</t>
-  </si>
-  <si>
-    <t>禁止施法</t>
+    <t>Condition.Enum.AreaType</t>
+  </si>
+  <si>
+    <t>范围类型</t>
+  </si>
+  <si>
+    <t>Rect</t>
+  </si>
+  <si>
+    <t>矩形</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>扇形</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>圆形</t>
+  </si>
+  <si>
+    <t>Condition.Enum.AreaSelectType</t>
+  </si>
+  <si>
+    <t>选择区域的范围类型</t>
   </si>
 </sst>
 </file>
@@ -910,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +953,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1248,25 +1291,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A1" sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="39.8333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.9166666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.8333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.08333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="39.8333333333333" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.9166666666667" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="24.8333333333333" style="7" customWidth="1"/>
+    <col min="6" max="6" width="7.08333333333333" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1351,181 +1394,46 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="5" t="b">
+      <c r="C4" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="b">
+      <c r="D4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1542,15 +1450,15 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.5833333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.0833333333333" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="20.5833333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5833333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.0833333333333" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="20.5833333333333" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1635,9 +1543,427 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.5833333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="18" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="100.5" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:11">
       <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
+      <c r="B4" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="b">
         <v>0</v>
@@ -1646,14 +1972,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -1667,284 +1993,242 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="5" t="b">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="5" t="b">
+      <c r="D15" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -246,12 +246,6 @@
     <t>范围检测</t>
   </si>
   <si>
-    <t>AreaSelect</t>
-  </si>
-  <si>
-    <t>范围选择</t>
-  </si>
-  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -261,7 +255,7 @@
     <t>Condition.Enum.AreaType</t>
   </si>
   <si>
-    <t>范围类型</t>
+    <t>选择区域的范围类型</t>
   </si>
   <si>
     <t>Rect</t>
@@ -270,22 +264,16 @@
     <t>矩形</t>
   </si>
   <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>圆形</t>
+  </si>
+  <si>
     <t>Sector</t>
   </si>
   <si>
     <t>扇形</t>
-  </si>
-  <si>
-    <t>Round</t>
-  </si>
-  <si>
-    <t>圆形</t>
-  </si>
-  <si>
-    <t>Condition.Enum.AreaSelectType</t>
-  </si>
-  <si>
-    <t>选择区域的范围类型</t>
   </si>
 </sst>
 </file>
@@ -464,7 +452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,6 +474,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,10 +793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -811,16 +805,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,10 +826,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -856,28 +850,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -886,19 +880,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,38 +901,41 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,19 +951,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1299,17 +1284,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="39.8333333333333" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.9166666666667" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="24.8333333333333" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.08333333333333" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="24.3333333333333" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="39.8333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.9166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.08333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1394,46 +1379,46 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9" t="b">
+      <c r="C4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="b">
+      <c r="D4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1456,9 +1441,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.5833333333333" style="7" customWidth="1"/>
-    <col min="2" max="2" width="34.0833333333333" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="20.5833333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.5833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.0833333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="20.5833333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:11">
@@ -1543,316 +1528,316 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="b">
+      <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="8" t="b">
+      <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="9" t="b">
+      <c r="C7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D7" s="9" t="b">
+      <c r="D7" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="b">
+      <c r="C9" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="b">
+      <c r="D9" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9" t="b">
+      <c r="C12" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D12" s="9" t="b">
+      <c r="D12" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="8" t="b">
+      <c r="C16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="b">
+      <c r="D16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1866,10 +1851,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
@@ -1962,7 +1947,7 @@
     </row>
     <row r="4" ht="17.25" spans="1:11">
       <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C4" s="4" t="b">
@@ -2003,232 +1988,147 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="6" t="b">
+      <c r="C6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D6" s="6" t="b">
+      <c r="D6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/LuBan/Datas/__enums__.xlsx
+++ b/LuBan/Datas/__enums__.xlsx
@@ -479,7 +479,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1854,7 +1854,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5833333333333" defaultRowHeight="16.5"/>
@@ -2064,71 +2064,80 @@
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="6" t="b">
+      <c r="C10" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="D10" s="6" t="b">
+      <c r="D10" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="7:8">
-      <c r="G13" s="1" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
